--- a/public/template/template-mabrurx.xlsx
+++ b/public/template/template-mabrurx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17b064826c09d349/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argon\Downloads\Video\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC32936D-15B4-49D8-9CC0-CB0C4A9E212A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DE0FD3-C2FD-46B7-B938-25FA934A5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{339E7F04-865D-456D-BC75-35EF3F29DA69}"/>
+    <workbookView xWindow="6420" yWindow="3480" windowWidth="12990" windowHeight="11295" xr2:uid="{339E7F04-865D-456D-BC75-35EF3F29DA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,16 +45,16 @@
     <t>telephone</t>
   </si>
   <si>
-    <t>no-paspor</t>
-  </si>
-  <si>
     <t>alamat</t>
   </si>
   <si>
     <t>nik</t>
   </si>
   <si>
-    <t>gol-darah</t>
+    <t>noPaspor</t>
+  </si>
+  <si>
+    <t>golDarah</t>
   </si>
 </sst>
 </file>
@@ -110,9 +110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -256,7 +256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,10 +409,18 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -425,13 +433,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
